--- a/Jogos_do_Dia/2023-05-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -757,37 +757,37 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
         <v>1.62</v>
@@ -796,13 +796,13 @@
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.9</v>
@@ -820,28 +820,28 @@
         <v>3.55</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="4">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -893,10 +893,10 @@
         <v>4.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P4" t="n">
         <v>1.29</v>
@@ -987,52 +987,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="6">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.48</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1280,13 +1280,13 @@
         <v>3.18</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AE7" t="n">
         <v>1.34</v>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1380,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,26 +1434,26 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sportivo Ameliano</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>1.75</v>
       </c>
       <c r="X9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1.63</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AA9" t="n">
-        <v>2.69</v>
+        <v>3.1</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
         <v>0.88</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1668,12 +1668,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,26 +1779,26 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nacional Asunción</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1840,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>2.38</v>
       </c>
       <c r="X12" t="n">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1898,12 +1898,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1955,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2013,12 +2013,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2070,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.79</v>
+        <v>1.41</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.09</v>
+        <v>2.62</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,26 +2124,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2158,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2185,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2300,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
         <v>0.88</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2350,114 +2350,114 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="AA17" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI17" t="n">
         <v>3.1</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2465,114 +2465,114 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Arsenal de Sarandí</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2580,84 +2580,84 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Arsenal de Sarandí</t>
+          <t>Nacional Asunción</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="P19" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.21</v>
+        <v>2.72</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2695,108 +2695,108 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:10:00</t>
         </is>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K20" t="n">
         <v>15</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Colo-Colo</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Curicó Unido</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="L20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.57</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.8</v>
       </c>
-      <c r="T20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="Z20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AB20" t="n">
         <v>2.2</v>
       </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,10 +690,10 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y2" t="n">
         <v>2.11</v>
@@ -732,7 +732,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Denmark 1st Division</t>
+          <t>USA MLS</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -740,48 +740,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>00:12:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SønderjyskE</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O3" t="n">
         <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -790,64 +790,64 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1.29</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AG3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AH3" t="n">
         <v>1.9</v>
       </c>
-      <c r="X3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2.03</v>
-      </c>
       <c r="AI3" t="n">
-        <v>2.58</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Denmark 1st Division</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -855,108 +855,108 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>SønderjyskE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.57</v>
       </c>
-      <c r="O4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.29</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.18</v>
       </c>
       <c r="U4" t="n">
         <v>1.25</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>0.93</v>
+        <v>1.73</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="AB4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1.33</v>
       </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AG4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="5">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1008,10 +1008,10 @@
         <v>2.84</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="P5" t="n">
         <v>1.46</v>
@@ -1035,10 +1035,10 @@
         <v>1.79</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>1.52</v>
@@ -1050,19 +1050,19 @@
         <v>2.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG5" t="n">
         <v>1.58</v>
@@ -1077,7 +1077,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1085,114 +1085,114 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="O6" t="n">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="W6" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y6" t="n">
         <v>2.06</v>
       </c>
-      <c r="X6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.96</v>
-      </c>
       <c r="Z6" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.73</v>
+        <v>3.78</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.6</v>
+        <v>3.74</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.97</v>
+        <v>2.35</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1200,114 +1200,114 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>4.48</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="P7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF7" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AG7" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.87</v>
+        <v>1.97</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.1</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1315,114 +1315,114 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X8" t="n">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Z8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA8" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,26 +1434,26 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.1</v>
+        <v>2.69</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1545,114 +1545,114 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1660,114 +1660,114 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Arsenal de Sarandí</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.46</v>
+        <v>1.06</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.96</v>
+        <v>2.21</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1775,30 +1775,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Nacional Asunción</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1840,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>2.38</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1890,912 +1890,107 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>23:10:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>América</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>1.62</v>
       </c>
       <c r="X13" t="n">
-        <v>0.71</v>
+        <v>2.05</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.7</v>
+        <v>3.69</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Chaco For Ever</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Paraguay Division Profesional</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>18</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>16</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Brown de Adrogué</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Chile Primera División</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Colo-Colo</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Curicó Unido</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Argentina Primera División</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Arsenal de Sarandí</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Independiente</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Paraguay Division Profesional</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Nacional Asunción</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mexico Liga MX</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>23:10:00</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Guadalajara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>América</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K20" t="n">
-        <v>15</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AI20" t="n">
         <v>2.84</v>
       </c>
     </row>
